--- a/outputs/regressions/C_facebook_per100k_UH_tables.xlsx
+++ b/outputs/regressions/C_facebook_per100k_UH_tables.xlsx
@@ -404,22 +404,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>65.29248675609078</v>
+        <v>56.25225512385005</v>
       </c>
       <c r="C2">
-        <v>16.26535313896214</v>
+        <v>12.65399263236149</v>
       </c>
       <c r="D2">
-        <v>4.01420652833468</v>
+        <v>4.445415510989772</v>
       </c>
       <c r="E2">
-        <v>0.0001790699651034279</v>
+        <v>4.199808929332091E-05</v>
       </c>
       <c r="F2">
-        <v>32.70906904168177</v>
+        <v>30.90326182670254</v>
       </c>
       <c r="G2">
-        <v>97.87590447049979</v>
+        <v>81.60124842099756</v>
       </c>
     </row>
     <row r="3">
@@ -429,22 +429,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-2.597170149101468</v>
+        <v>-2.685639877587192</v>
       </c>
       <c r="C3">
-        <v>0.6267057023222165</v>
+        <v>0.6152629174601276</v>
       </c>
       <c r="D3">
-        <v>-4.144162306929435</v>
+        <v>-4.365028025212061</v>
       </c>
       <c r="E3">
-        <v>0.0001164542065113913</v>
+        <v>5.529456805371976E-05</v>
       </c>
       <c r="F3">
-        <v>-3.852612530727486</v>
+        <v>-3.918159606640457</v>
       </c>
       <c r="G3">
-        <v>-1.34172776747545</v>
+        <v>-1.453120148533926</v>
       </c>
     </row>
     <row r="4">
@@ -454,22 +454,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0001700583712862234</v>
+        <v>0.0002940758447331674</v>
       </c>
       <c r="C4">
-        <v>0.0002230774958099204</v>
+        <v>0.00016514914504955</v>
       </c>
       <c r="D4">
-        <v>0.7623286726829969</v>
+        <v>1.780668284083065</v>
       </c>
       <c r="E4">
-        <v>0.4490629620405332</v>
+        <v>0.08039114502839531</v>
       </c>
       <c r="F4">
-        <v>-0.0002768195517788248</v>
+        <v>-3.675764731300458E-05</v>
       </c>
       <c r="G4">
-        <v>0.0006169362943512716</v>
+        <v>0.0006249093367793393</v>
       </c>
     </row>
   </sheetData>
@@ -549,34 +549,34 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.2390441403269104</v>
+        <v>0.2723476997441115</v>
       </c>
       <c r="B2">
-        <v>0.2118671453385857</v>
+        <v>0.2463601175921154</v>
       </c>
       <c r="C2">
-        <v>20.46199964905631</v>
+        <v>20.00922617688511</v>
       </c>
       <c r="D2">
-        <v>8.795826780319347</v>
+        <v>10.47991683686485</v>
       </c>
       <c r="E2">
-        <v>0.000476502339991926</v>
+        <v>0.000136103528392452</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>-260.2734936685832</v>
+        <v>-258.9533088261978</v>
       </c>
       <c r="H2">
-        <v>528.5469873371663</v>
+        <v>525.9066176523957</v>
       </c>
       <c r="I2">
-        <v>536.8571371127892</v>
+        <v>534.2167674280186</v>
       </c>
       <c r="J2">
-        <v>23446.8320597269</v>
+        <v>22420.67140307368</v>
       </c>
       <c r="K2">
         <v>56</v>
@@ -663,25 +663,25 @@
         <v>2.68588072526758</v>
       </c>
       <c r="D2">
-        <v>67991.77301706563</v>
+        <v>67181.74712863824</v>
       </c>
       <c r="E2">
-        <v>69.87936769252359</v>
+        <v>68.79547577913296</v>
       </c>
       <c r="F2">
-        <v>-4.879367692523587</v>
+        <v>-3.795475779132957</v>
       </c>
       <c r="G2">
-        <v>0.03116101723755951</v>
+        <v>0.03229928153378172</v>
       </c>
       <c r="H2">
-        <v>20.63635718402064</v>
+        <v>20.18360493288645</v>
       </c>
       <c r="I2">
-        <v>0.0006292425881248893</v>
+        <v>0.0004136769685149839</v>
       </c>
       <c r="J2">
-        <v>-0.2422644392208677</v>
+        <v>-0.1928259142709269</v>
       </c>
     </row>
     <row r="3">
@@ -697,25 +697,25 @@
         <v>6.45776651968603</v>
       </c>
       <c r="D3">
-        <v>81791.36810928039</v>
+        <v>90191.74505454005</v>
       </c>
       <c r="E3">
-        <v>62.42987516723151</v>
+        <v>65.43223345330614</v>
       </c>
       <c r="F3">
-        <v>27.57012483276849</v>
+        <v>24.56776654669386</v>
       </c>
       <c r="G3">
-        <v>0.03330301438245876</v>
+        <v>0.03662229937110562</v>
       </c>
       <c r="H3">
-        <v>20.29802237884742</v>
+        <v>19.90621266943873</v>
       </c>
       <c r="I3">
-        <v>0.02156566629814423</v>
+        <v>0.01982905152905331</v>
       </c>
       <c r="J3">
-        <v>1.370394091406645</v>
+        <v>1.250941753597677</v>
       </c>
     </row>
     <row r="4">
@@ -731,25 +731,25 @@
         <v>3.08878247250462</v>
       </c>
       <c r="D4">
-        <v>74483.83707928412</v>
+        <v>81734.41243185951</v>
       </c>
       <c r="E4">
-        <v>69.93699314228543</v>
+        <v>71.99301412216747</v>
       </c>
       <c r="F4">
-        <v>17.56300685771457</v>
+        <v>15.50698587783253</v>
       </c>
       <c r="G4">
-        <v>0.03064792384902039</v>
+        <v>0.03444916281956303</v>
       </c>
       <c r="H4">
-        <v>20.50659331696078</v>
+        <v>20.07785997493798</v>
       </c>
       <c r="I4">
-        <v>0.008009738020811131</v>
+        <v>0.007397778504329437</v>
       </c>
       <c r="J4">
-        <v>0.8717862714170472</v>
+        <v>0.788695795544723</v>
       </c>
     </row>
     <row r="5">
@@ -765,25 +765,25 @@
         <v>9.325392620223379</v>
       </c>
       <c r="D5">
-        <v>75252.81151631537</v>
+        <v>87289.09301633421</v>
       </c>
       <c r="E5">
-        <v>53.87022597536924</v>
+        <v>56.87722259359133</v>
       </c>
       <c r="F5">
-        <v>4.454774024630765</v>
+        <v>1.447777406408669</v>
       </c>
       <c r="G5">
-        <v>0.02721136980594361</v>
+        <v>0.03596579072375691</v>
       </c>
       <c r="H5">
-        <v>20.63819580412458</v>
+        <v>20.18932983026375</v>
       </c>
       <c r="I5">
-        <v>0.0004543048668808896</v>
+        <v>6.753462155036542E-05</v>
       </c>
       <c r="J5">
-        <v>0.2207335575221693</v>
+        <v>0.07369283745609807</v>
       </c>
     </row>
     <row r="6">
@@ -799,25 +799,25 @@
         <v>10.5</v>
       </c>
       <c r="D6">
-        <v>55164.58963988678</v>
+        <v>59811.86816725912</v>
       </c>
       <c r="E6">
-        <v>47.40340045735739</v>
+        <v>45.6422620655401</v>
       </c>
       <c r="F6">
-        <v>15.09659954264261</v>
+        <v>16.8577379344599</v>
       </c>
       <c r="G6">
-        <v>0.05925812936583219</v>
+        <v>0.04663418591906573</v>
       </c>
       <c r="H6">
-        <v>20.5402348691884</v>
+        <v>20.05564402933943</v>
       </c>
       <c r="I6">
-        <v>0.01214920496728276</v>
+        <v>0.01213953369464599</v>
       </c>
       <c r="J6">
-        <v>0.7606691882716036</v>
+        <v>0.8628577761219061</v>
       </c>
     </row>
     <row r="7">
@@ -833,25 +833,25 @@
         <v>2.94038220551501</v>
       </c>
       <c r="D7">
-        <v>46015.0339112042</v>
+        <v>46146.15557249181</v>
       </c>
       <c r="E7">
-        <v>65.48105558659778</v>
+        <v>61.92591709853985</v>
       </c>
       <c r="F7">
-        <v>29.51894441340222</v>
+        <v>33.07408290146015</v>
       </c>
       <c r="G7">
-        <v>0.09617105868556601</v>
+        <v>0.07448350314624275</v>
       </c>
       <c r="H7">
-        <v>20.21823968999024</v>
+        <v>19.65092744378776</v>
       </c>
       <c r="I7">
-        <v>0.08166879646933987</v>
+        <v>0.07919277216030392</v>
       </c>
       <c r="J7">
-        <v>1.517433363234456</v>
+        <v>1.71816724400229</v>
       </c>
     </row>
     <row r="8">
@@ -867,25 +867,25 @@
         <v>14.7</v>
       </c>
       <c r="D8">
-        <v>70832.03617651282</v>
+        <v>74307.18989708376</v>
       </c>
       <c r="E8">
-        <v>39.15966627136383</v>
+        <v>38.62529856205112</v>
       </c>
       <c r="F8">
-        <v>4.590333728636175</v>
+        <v>5.124701437948879</v>
       </c>
       <c r="G8">
-        <v>0.07954367899223604</v>
+        <v>0.07975024466915048</v>
       </c>
       <c r="H8">
-        <v>20.63709809382463</v>
+        <v>20.17745496357877</v>
       </c>
       <c r="I8">
-        <v>0.001574963256500794</v>
+        <v>0.002059092699642711</v>
       </c>
       <c r="J8">
-        <v>0.2338269666997743</v>
+        <v>0.2669841134838108</v>
       </c>
     </row>
     <row r="9">
@@ -901,25 +901,25 @@
         <v>3.69164681008155</v>
       </c>
       <c r="D9">
-        <v>76632.44596026209</v>
+        <v>81327.64625838738</v>
       </c>
       <c r="E9">
-        <v>68.73664080760302</v>
+        <v>70.25431751032298</v>
       </c>
       <c r="F9">
-        <v>25.01335919239698</v>
+        <v>23.49568248967702</v>
       </c>
       <c r="G9">
-        <v>0.02996691612964363</v>
+        <v>0.03011482138073966</v>
       </c>
       <c r="H9">
-        <v>20.36120882267113</v>
+        <v>19.93237809542898</v>
       </c>
       <c r="I9">
-        <v>0.01586337526589774</v>
+        <v>0.01471410782395449</v>
       </c>
       <c r="J9">
-        <v>1.241168295731319</v>
+        <v>1.192333126242774</v>
       </c>
     </row>
     <row r="10">
@@ -935,25 +935,25 @@
         <v>1.5</v>
       </c>
       <c r="D10">
-        <v>71179.13312050847</v>
+        <v>68597.578659686</v>
       </c>
       <c r="E10">
-        <v>73.50133898047753</v>
+        <v>72.39668619846631</v>
       </c>
       <c r="F10">
-        <v>1.498661019522473</v>
+        <v>2.603313801533687</v>
       </c>
       <c r="G10">
-        <v>0.04091724501428572</v>
+        <v>0.04121405451726896</v>
       </c>
       <c r="H10">
-        <v>20.64614877345671</v>
+        <v>20.18712588666187</v>
       </c>
       <c r="I10">
-        <v>7.953964396801177E-05</v>
+        <v>0.0002529724477284305</v>
       </c>
       <c r="J10">
-        <v>0.07478720407958973</v>
+        <v>0.1328725891807507</v>
       </c>
     </row>
     <row r="11">
@@ -969,25 +969,25 @@
         <v>13.2248110357285</v>
       </c>
       <c r="D11">
-        <v>69978.08522610717</v>
+        <v>82199.02531478246</v>
       </c>
       <c r="E11">
-        <v>42.84576150586937</v>
+        <v>44.90792303843008</v>
       </c>
       <c r="F11">
-        <v>17.15423849413063</v>
+        <v>15.09207696156992</v>
       </c>
       <c r="G11">
-        <v>0.05902854409104998</v>
+        <v>0.06199971513965438</v>
       </c>
       <c r="H11">
-        <v>20.50902430943529</v>
+        <v>20.08067613759714</v>
       </c>
       <c r="I11">
-        <v>0.01561833233916236</v>
+        <v>0.01336287588143106</v>
       </c>
       <c r="J11">
-        <v>0.8642415582956198</v>
+        <v>0.7787843806863467</v>
       </c>
     </row>
     <row r="12">
@@ -1003,25 +1003,25 @@
         <v>5.4032441077623</v>
       </c>
       <c r="D12">
-        <v>95169.11906523111</v>
+        <v>95296.64579700203</v>
       </c>
       <c r="E12">
-        <v>67.44364783608</v>
+        <v>69.76552889269641</v>
       </c>
       <c r="F12">
-        <v>-4.943647836080004</v>
+        <v>-7.265528892696409</v>
       </c>
       <c r="G12">
-        <v>0.09354920134643807</v>
+        <v>0.05250627671209522</v>
       </c>
       <c r="H12">
-        <v>20.63530520060481</v>
+        <v>20.16520775094521</v>
       </c>
       <c r="I12">
-        <v>0.002215283249458764</v>
+        <v>0.002570461873759601</v>
       </c>
       <c r="J12">
-        <v>-0.2537624362335925</v>
+        <v>-0.3730343030494457</v>
       </c>
     </row>
     <row r="13">
@@ -1037,25 +1037,25 @@
         <v>2.55905292789034</v>
       </c>
       <c r="D13">
-        <v>77498.32555885774</v>
+        <v>84055.36458864267</v>
       </c>
       <c r="E13">
-        <v>71.82542990375212</v>
+        <v>74.09821287761095</v>
       </c>
       <c r="F13">
-        <v>-9.325429903752124</v>
+        <v>-11.59821287761095</v>
       </c>
       <c r="G13">
-        <v>0.03884160647513004</v>
+        <v>0.0418654659271496</v>
       </c>
       <c r="H13">
-        <v>20.60730413661183</v>
+        <v>20.12699458424038</v>
       </c>
       <c r="I13">
-        <v>0.002910901980798316</v>
+        <v>0.005107439740350602</v>
       </c>
       <c r="J13">
-        <v>-0.4648612093116647</v>
+        <v>-0.5921715458156057</v>
       </c>
     </row>
     <row r="14">
@@ -1071,25 +1071,25 @@
         <v>6.4</v>
       </c>
       <c r="D14">
-        <v>62156.34401908911</v>
+        <v>66762.63097831725</v>
       </c>
       <c r="E14">
-        <v>59.24080443083387</v>
+        <v>58.6974370088494</v>
       </c>
       <c r="F14">
-        <v>0.7591955691661312</v>
+        <v>1.302562991150602</v>
       </c>
       <c r="G14">
-        <v>0.02438604208142729</v>
+        <v>0.01976996265172616</v>
       </c>
       <c r="H14">
-        <v>20.64691976803024</v>
+        <v>20.18952947044923</v>
       </c>
       <c r="I14">
-        <v>1.175642392435613E-05</v>
+        <v>2.906467451171977E-05</v>
       </c>
       <c r="J14">
-        <v>0.03756354655676949</v>
+        <v>0.065751314259476</v>
       </c>
     </row>
     <row r="15">
@@ -1105,25 +1105,25 @@
         <v>12.2</v>
       </c>
       <c r="D15">
-        <v>98730.47124702754</v>
+        <v>102446.0482241939</v>
       </c>
       <c r="E15">
-        <v>50.39695407364368</v>
+        <v>53.61435678839094</v>
       </c>
       <c r="F15">
-        <v>18.35304592635632</v>
+        <v>15.13564321160906</v>
       </c>
       <c r="G15">
-        <v>0.141717253058958</v>
+        <v>0.09771220259780292</v>
       </c>
       <c r="H15">
-        <v>20.47365518983446</v>
+        <v>20.07566365862457</v>
       </c>
       <c r="I15">
-        <v>0.05158944585970016</v>
+        <v>0.02289172695165816</v>
       </c>
       <c r="J15">
-        <v>0.968154987859404</v>
+        <v>0.7963391116552312</v>
       </c>
     </row>
     <row r="16">
@@ -1139,25 +1139,25 @@
         <v>3.2</v>
       </c>
       <c r="D16">
-        <v>60278.56888388978</v>
+        <v>65929.74328057466</v>
       </c>
       <c r="E16">
-        <v>67.2324175268248</v>
+        <v>67.04655246384689</v>
       </c>
       <c r="F16">
-        <v>-20.3574175268248</v>
+        <v>-20.17155246384689</v>
       </c>
       <c r="G16">
-        <v>0.03812011551212294</v>
+        <v>0.02990118304443401</v>
       </c>
       <c r="H16">
-        <v>20.45659867712757</v>
+        <v>20.00056286896755</v>
       </c>
       <c r="I16">
-        <v>0.01359378793037234</v>
+        <v>0.01076349289510544</v>
       </c>
       <c r="J16">
-        <v>-1.014411560429466</v>
+        <v>-1.02353110010832</v>
       </c>
     </row>
     <row r="17">
@@ -1173,25 +1173,25 @@
         <v>10.7</v>
       </c>
       <c r="D17">
-        <v>76115.05738486815</v>
+        <v>82206.83692140164</v>
       </c>
       <c r="E17">
-        <v>50.44676884993318</v>
+        <v>51.69095344417002</v>
       </c>
       <c r="F17">
-        <v>-25.44676884993318</v>
+        <v>-26.69095344417002</v>
       </c>
       <c r="G17">
-        <v>0.03714751209530523</v>
+        <v>0.03713219015987595</v>
       </c>
       <c r="H17">
-        <v>20.34891623251995</v>
+        <v>19.85437484584033</v>
       </c>
       <c r="I17">
-        <v>0.02065656520021397</v>
+        <v>0.0237554665563181</v>
       </c>
       <c r="J17">
-        <v>-1.26737370849693</v>
+        <v>-1.359410000572365</v>
       </c>
     </row>
     <row r="18">
@@ -1207,25 +1207,25 @@
         <v>5.72680801177791</v>
       </c>
       <c r="D18">
-        <v>70198.82140787532</v>
+        <v>415.0034985863609</v>
       </c>
       <c r="E18">
-        <v>62.35688917310181</v>
+        <v>40.99415366054748</v>
       </c>
       <c r="F18">
-        <v>-37.35688917310181</v>
+        <v>-15.99415366054748</v>
       </c>
       <c r="G18">
-        <v>0.01755557027617301</v>
+        <v>0.3759342668884889</v>
       </c>
       <c r="H18">
-        <v>20.01197716494184</v>
+        <v>20.00488937109305</v>
       </c>
       <c r="I18">
-        <v>0.02020798263019947</v>
+        <v>0.20558523834084</v>
       </c>
       <c r="J18">
-        <v>-1.841910967181311</v>
+        <v>-1.011849222904467</v>
       </c>
     </row>
     <row r="19">
@@ -1241,25 +1241,25 @@
         <v>2.53649251238403</v>
       </c>
       <c r="D19">
-        <v>83330.37053497028</v>
+        <v>85126.38186767402</v>
       </c>
       <c r="E19">
-        <v>72.87581121136213</v>
+        <v>74.4737623402046</v>
       </c>
       <c r="F19">
-        <v>-5.025811211362139</v>
+        <v>-6.623762340204607</v>
       </c>
       <c r="G19">
-        <v>0.05379262141976904</v>
+        <v>0.04390723780380928</v>
       </c>
       <c r="H19">
-        <v>20.63542289819633</v>
+        <v>20.16963618561938</v>
       </c>
       <c r="I19">
-        <v>0.00120821713100451</v>
+        <v>0.001754541711576143</v>
       </c>
       <c r="J19">
-        <v>-0.2525020641510021</v>
+        <v>-0.3385512588651252</v>
       </c>
     </row>
     <row r="20">
@@ -1275,25 +1275,25 @@
         <v>5.5</v>
       </c>
       <c r="D20">
-        <v>67710.03232407106</v>
+        <v>70364.16476379705</v>
       </c>
       <c r="E20">
-        <v>62.52270875280176</v>
+        <v>62.17363698897788</v>
       </c>
       <c r="F20">
-        <v>-12.52270875280176</v>
+        <v>-12.17363698897788</v>
       </c>
       <c r="G20">
-        <v>0.01855646918504793</v>
+        <v>0.01836718035079621</v>
       </c>
       <c r="H20">
-        <v>20.57670740173438</v>
+        <v>20.12221796293294</v>
       </c>
       <c r="I20">
-        <v>0.002405159437926216</v>
+        <v>0.00235181525616259</v>
       </c>
       <c r="J20">
-        <v>-0.6177568202289276</v>
+        <v>-0.61406666039867</v>
       </c>
     </row>
     <row r="21">
@@ -1309,25 +1309,25 @@
         <v>8.5</v>
       </c>
       <c r="D21">
-        <v>63495.90882535359</v>
+        <v>69474.91642528059</v>
       </c>
       <c r="E21">
-        <v>54.01455132690647</v>
+        <v>53.85521089988951</v>
       </c>
       <c r="F21">
-        <v>-20.68955132690648</v>
+        <v>-20.53021089988952</v>
       </c>
       <c r="G21">
-        <v>0.02597375960358969</v>
+        <v>0.02193194289654891</v>
       </c>
       <c r="H21">
-        <v>20.45276588462751</v>
+        <v>19.99533148766045</v>
       </c>
       <c r="I21">
-        <v>0.009329927039291436</v>
+        <v>0.008045331355076466</v>
       </c>
       <c r="J21">
-        <v>-1.024513466564076</v>
+        <v>-1.037477243991779</v>
       </c>
     </row>
     <row r="22">
@@ -1343,25 +1343,25 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>65570.89946374581</v>
+        <v>69588.18257897071</v>
       </c>
       <c r="E22">
-        <v>47.87449548255194</v>
+        <v>47.17442004574763</v>
       </c>
       <c r="F22">
-        <v>22.12550451744806</v>
+        <v>22.82557995425237</v>
       </c>
       <c r="G22">
-        <v>0.0384890274534675</v>
+        <v>0.03752459082941709</v>
       </c>
       <c r="H22">
-        <v>20.42177894315279</v>
+        <v>19.94508437720403</v>
       </c>
       <c r="I22">
-        <v>0.01622547473725238</v>
+        <v>0.01757108101848675</v>
       </c>
       <c r="J22">
-        <v>1.102726946624337</v>
+        <v>1.162777732811016</v>
       </c>
     </row>
     <row r="23">
@@ -1377,25 +1377,25 @@
         <v>3.29111830241491</v>
       </c>
       <c r="D23">
-        <v>91313.08212089853</v>
+        <v>99929.91249567004</v>
       </c>
       <c r="E23">
-        <v>72.27344656650244</v>
+        <v>76.80047000030316</v>
       </c>
       <c r="F23">
-        <v>9.55155343349756</v>
+        <v>5.024529999696838</v>
       </c>
       <c r="G23">
-        <v>0.08171153108125906</v>
+        <v>0.07952171347653553</v>
       </c>
       <c r="H23">
-        <v>20.60338975954899</v>
+        <v>20.17795577725154</v>
       </c>
       <c r="I23">
-        <v>0.007038104408140479</v>
+        <v>0.00197273013412207</v>
       </c>
       <c r="J23">
-        <v>0.4871204601085599</v>
+        <v>0.2617329355194003</v>
       </c>
     </row>
     <row r="24">
@@ -1411,25 +1411,25 @@
         <v>10.4</v>
       </c>
       <c r="D24">
-        <v>52114.85693838581</v>
+        <v>55609.9290454299</v>
       </c>
       <c r="E24">
-        <v>47.14448489619194</v>
+        <v>44.67513725652955</v>
       </c>
       <c r="F24">
-        <v>-12.14448489619194</v>
+        <v>-9.675137256529553</v>
       </c>
       <c r="G24">
-        <v>0.07062585161472286</v>
+        <v>0.05547860184826763</v>
       </c>
       <c r="H24">
-        <v>20.57718748522697</v>
+        <v>20.14563558776096</v>
       </c>
       <c r="I24">
-        <v>0.009601151431134616</v>
+        <v>0.004846568253981203</v>
       </c>
       <c r="J24">
-        <v>-0.6156526203428366</v>
+        <v>-0.4975319108095599</v>
       </c>
     </row>
     <row r="25">
@@ -1445,25 +1445,25 @@
         <v>12.6</v>
       </c>
       <c r="D25">
-        <v>66833.7406284637</v>
+        <v>70003.42095301594</v>
       </c>
       <c r="E25">
-        <v>43.93377995565471</v>
+        <v>42.99950781722111</v>
       </c>
       <c r="F25">
-        <v>9.641220044345282</v>
+        <v>10.57549218277889</v>
       </c>
       <c r="G25">
-        <v>0.05314449649988155</v>
+        <v>0.05343659436071741</v>
       </c>
       <c r="H25">
-        <v>20.60391036259783</v>
+        <v>20.13703804916043</v>
       </c>
       <c r="I25">
-        <v>0.004386695314019117</v>
+        <v>0.005553396552973595</v>
       </c>
       <c r="J25">
-        <v>0.4842192695258288</v>
+        <v>0.5432446274312227</v>
       </c>
     </row>
     <row r="26">
@@ -1479,25 +1479,25 @@
         <v>2.31493683220093</v>
       </c>
       <c r="D26">
-        <v>57622.22427316321</v>
+        <v>60403.09286511042</v>
       </c>
       <c r="E26">
-        <v>69.07934352822663</v>
+        <v>67.79825901199916</v>
       </c>
       <c r="F26">
-        <v>-0.3293435282266302</v>
+        <v>0.9517409880008358</v>
       </c>
       <c r="G26">
-        <v>0.05102930609198538</v>
+        <v>0.04238156550481466</v>
       </c>
       <c r="H26">
-        <v>20.64712956493992</v>
+        <v>20.18988293156161</v>
       </c>
       <c r="I26">
-        <v>4.893222096496558E-06</v>
+        <v>3.485360493240531E-05</v>
       </c>
       <c r="J26">
-        <v>-0.01652245814893689</v>
+        <v>0.04860626282987566</v>
       </c>
     </row>
     <row r="27">
@@ -1513,25 +1513,25 @@
         <v>3.7</v>
       </c>
       <c r="D27">
-        <v>70626.00953557422</v>
+        <v>73724.61487280784</v>
       </c>
       <c r="E27">
-        <v>67.69350135648038</v>
+        <v>67.99601597312585</v>
       </c>
       <c r="F27">
-        <v>19.80649864351962</v>
+        <v>19.50398402687415</v>
       </c>
       <c r="G27">
-        <v>0.02451891638196532</v>
+        <v>0.02459572522295565</v>
       </c>
       <c r="H27">
-        <v>20.46934479396516</v>
+        <v>20.01393775014316</v>
       </c>
       <c r="I27">
-        <v>0.008047511112703284</v>
+        <v>0.008187572283876957</v>
       </c>
       <c r="J27">
-        <v>0.9800544605746827</v>
+        <v>0.986962636693159</v>
       </c>
     </row>
     <row r="28">
@@ -1547,25 +1547,25 @@
         <v>13.1</v>
       </c>
       <c r="D28">
-        <v>70397.50973734049</v>
+        <v>79252.29707616482</v>
       </c>
       <c r="E28">
-        <v>43.24124365139973</v>
+        <v>44.37655893717493</v>
       </c>
       <c r="F28">
-        <v>-26.56624365139973</v>
+        <v>-27.70155893717493</v>
       </c>
       <c r="G28">
-        <v>0.0574350615462585</v>
+        <v>0.05838931007745717</v>
       </c>
       <c r="H28">
-        <v>20.3148226443335</v>
+        <v>19.81996697618986</v>
       </c>
       <c r="I28">
-        <v>0.03632431486295371</v>
+        <v>0.04207432545280417</v>
       </c>
       <c r="J28">
-        <v>-1.337292589940443</v>
+        <v>-1.426718283058958</v>
       </c>
     </row>
     <row r="29">
@@ -1581,25 +1581,25 @@
         <v>12.4190191079823</v>
       </c>
       <c r="D29">
-        <v>67420.35051007062</v>
+        <v>72416.42688987707</v>
       </c>
       <c r="E29">
-        <v>44.50357604700732</v>
+        <v>44.19516407713373</v>
       </c>
       <c r="F29">
-        <v>13.82142395299268</v>
+        <v>14.12983592286628</v>
       </c>
       <c r="G29">
-        <v>0.05062763786265312</v>
+        <v>0.05002881377114096</v>
       </c>
       <c r="H29">
-        <v>20.55839269311097</v>
+        <v>20.09545618093758</v>
       </c>
       <c r="I29">
-        <v>0.008542847870004906</v>
+        <v>0.009214923539834496</v>
       </c>
       <c r="J29">
-        <v>0.6932444851941669</v>
+        <v>0.7245220529702064</v>
       </c>
     </row>
     <row r="30">
@@ -1615,25 +1615,25 @@
         <v>9.4</v>
       </c>
       <c r="D30">
-        <v>70154.90641609728</v>
+        <v>73972.99900704822</v>
       </c>
       <c r="E30">
-        <v>52.8095164773959</v>
+        <v>52.7609124449739</v>
       </c>
       <c r="F30">
-        <v>17.1904835226041</v>
+        <v>17.2390875550261</v>
       </c>
       <c r="G30">
-        <v>0.0246818356275798</v>
+        <v>0.02468363449213181</v>
       </c>
       <c r="H30">
-        <v>20.51333976595912</v>
+        <v>20.05264161995156</v>
       </c>
       <c r="I30">
-        <v>0.006104408871634412</v>
+        <v>0.006420440018574055</v>
       </c>
       <c r="J30">
-        <v>0.8506812552173887</v>
+        <v>0.8723910998248283</v>
       </c>
     </row>
     <row r="31">
@@ -1649,25 +1649,25 @@
         <v>8.262328943971079</v>
       </c>
       <c r="D31">
-        <v>43131.03276276811</v>
+        <v>49310.69364569535</v>
       </c>
       <c r="E31">
-        <v>51.16860584428112</v>
+        <v>48.56369891841474</v>
       </c>
       <c r="F31">
-        <v>-26.16860584428112</v>
+        <v>-23.56369891841474</v>
       </c>
       <c r="G31">
-        <v>0.1068900351573809</v>
+        <v>0.0607068552057275</v>
       </c>
       <c r="H31">
-        <v>20.30677349184822</v>
+        <v>19.92236642734544</v>
       </c>
       <c r="I31">
-        <v>0.07305856221001603</v>
+        <v>0.03180830438971733</v>
       </c>
       <c r="J31">
-        <v>-1.353256262118124</v>
+        <v>-1.215101607019453</v>
       </c>
     </row>
     <row r="32">
@@ -1683,25 +1683,25 @@
         <v>5.90675675099261</v>
       </c>
       <c r="D32">
-        <v>60590.81493857496</v>
+        <v>64214.81589056191</v>
       </c>
       <c r="E32">
-        <v>60.25560974776823</v>
+        <v>59.27285987357875</v>
       </c>
       <c r="F32">
-        <v>-14.43060974776824</v>
+        <v>-13.44785987357876</v>
       </c>
       <c r="G32">
-        <v>0.02787716872638234</v>
+        <v>0.02257962250683226</v>
       </c>
       <c r="H32">
-        <v>20.55264542898309</v>
+        <v>20.10682775290912</v>
       </c>
       <c r="I32">
-        <v>0.004890557181261573</v>
+        <v>0.00355859371721849</v>
       </c>
       <c r="J32">
-        <v>-0.7152799271460583</v>
+        <v>-0.679801607537554</v>
       </c>
     </row>
     <row r="33">
@@ -1717,25 +1717,25 @@
         <v>5.5</v>
       </c>
       <c r="D33">
-        <v>64106.14547433918</v>
+        <v>66729.34681222508</v>
       </c>
       <c r="E33">
-        <v>61.90983762483653</v>
+        <v>61.10472482941807</v>
       </c>
       <c r="F33">
-        <v>-33.33483762483652</v>
+        <v>-32.52972482941807</v>
       </c>
       <c r="G33">
-        <v>0.02205107242834623</v>
+        <v>0.02050723142700013</v>
       </c>
       <c r="H33">
-        <v>20.14067108543928</v>
+        <v>19.6978695985484</v>
       </c>
       <c r="I33">
-        <v>0.02039748646881429</v>
+        <v>0.01883143875779462</v>
       </c>
       <c r="J33">
-        <v>-1.647373910365627</v>
+        <v>-1.642666798209483</v>
       </c>
     </row>
     <row r="34">
@@ -1751,25 +1751,25 @@
         <v>1.1</v>
       </c>
       <c r="D34">
-        <v>72081.92852266831</v>
+        <v>76655.25160516577</v>
       </c>
       <c r="E34">
-        <v>74.69373495581411</v>
+        <v>75.84050912752676</v>
       </c>
       <c r="F34">
-        <v>-28.26873495581411</v>
+        <v>-29.41550912752676</v>
       </c>
       <c r="G34">
-        <v>0.04527619958407954</v>
+        <v>0.04648953063019907</v>
       </c>
       <c r="H34">
-        <v>20.27529337178336</v>
+        <v>19.77749495007006</v>
       </c>
       <c r="I34">
-        <v>0.03160165405946987</v>
+        <v>0.03683622588826026</v>
       </c>
       <c r="J34">
-        <v>-1.413902383011928</v>
+        <v>-1.505508955739485</v>
       </c>
     </row>
     <row r="35">
@@ -1785,25 +1785,25 @@
         <v>17</v>
       </c>
       <c r="D35">
-        <v>69743.97606503109</v>
+        <v>71657.91613267739</v>
       </c>
       <c r="E35">
-        <v>33.00114119801036</v>
+        <v>31.66923942340335</v>
       </c>
       <c r="F35">
-        <v>-16.32614119801036</v>
+        <v>-14.99423942340335</v>
       </c>
       <c r="G35">
-        <v>0.1198920093838986</v>
+        <v>0.1215728043070472</v>
       </c>
       <c r="H35">
-        <v>20.5134011989059</v>
+        <v>20.07473694582938</v>
       </c>
       <c r="I35">
-        <v>0.0328449047609985</v>
+        <v>0.02949116506716349</v>
       </c>
       <c r="J35">
-        <v>-0.8504866350982374</v>
+        <v>-0.7995419618111267</v>
       </c>
     </row>
     <row r="36">
@@ -1819,25 +1819,25 @@
         <v>2.87475030750721</v>
       </c>
       <c r="D36">
-        <v>85294.09953456311</v>
+        <v>91333.60290157814</v>
       </c>
       <c r="E36">
-        <v>72.33124671848562</v>
+        <v>75.3907174857079</v>
       </c>
       <c r="F36">
-        <v>12.66875328151438</v>
+        <v>9.609282514292104</v>
       </c>
       <c r="G36">
-        <v>0.05806611800238772</v>
+        <v>0.05503296265724394</v>
       </c>
       <c r="H36">
-        <v>20.57202018208752</v>
+        <v>20.14626313051358</v>
       </c>
       <c r="I36">
-        <v>0.008362426445873284</v>
+        <v>0.004737941090280184</v>
       </c>
       <c r="J36">
-        <v>0.6379337748838019</v>
+        <v>0.4940288811935109</v>
       </c>
     </row>
     <row r="37">
@@ -1853,25 +1853,25 @@
         <v>3.23418639346486</v>
       </c>
       <c r="D37">
-        <v>80389.55602416785</v>
+        <v>87374.50651106385</v>
       </c>
       <c r="E37">
-        <v>70.5636713642463</v>
+        <v>73.26112698439566</v>
       </c>
       <c r="F37">
-        <v>10.6863286357537</v>
+        <v>7.988873015604341</v>
       </c>
       <c r="G37">
-        <v>0.04042612931418259</v>
+        <v>0.04304852056370688</v>
       </c>
       <c r="H37">
-        <v>20.59471396421397</v>
+        <v>20.16025715488827</v>
       </c>
       <c r="I37">
-        <v>0.003991581352018828</v>
+        <v>0.002497857099187337</v>
       </c>
       <c r="J37">
-        <v>0.5331399736858685</v>
+        <v>0.4081410388710053</v>
       </c>
     </row>
     <row r="38">
@@ -1887,25 +1887,25 @@
         <v>3.41235488925821</v>
       </c>
       <c r="D38">
-        <v>74213.41733841586</v>
+        <v>75001.16192326265</v>
       </c>
       <c r="E38">
-        <v>69.05063337972469</v>
+        <v>69.14392880533111</v>
       </c>
       <c r="F38">
-        <v>-9.050633379724687</v>
+        <v>-9.143928805331115</v>
       </c>
       <c r="G38">
-        <v>0.02834047389828836</v>
+        <v>0.02660488111952398</v>
       </c>
       <c r="H38">
-        <v>20.61002796688215</v>
+        <v>20.15159578496526</v>
       </c>
       <c r="I38">
-        <v>0.001957579587968198</v>
+        <v>0.001954640193398718</v>
       </c>
       <c r="J38">
-        <v>-0.4487183640980258</v>
+        <v>-0.4631887051280941</v>
       </c>
     </row>
     <row r="39">
@@ -1921,25 +1921,25 @@
         <v>5.14039344823403</v>
       </c>
       <c r="D39">
-        <v>85075.97863298407</v>
+        <v>89580.09633627289</v>
       </c>
       <c r="E39">
-        <v>66.40989269960741</v>
+        <v>68.79035199415276</v>
       </c>
       <c r="F39">
-        <v>16.91510730039259</v>
+        <v>14.53464800584725</v>
       </c>
       <c r="G39">
-        <v>0.04591548243225278</v>
+        <v>0.03806520620650794</v>
       </c>
       <c r="H39">
-        <v>20.51471382784375</v>
+        <v>20.09118110159271</v>
       </c>
       <c r="I39">
-        <v>0.01148993491643502</v>
+        <v>0.007235426151519457</v>
       </c>
       <c r="J39">
-        <v>0.8463173806652957</v>
+        <v>0.7406301855861707</v>
       </c>
     </row>
     <row r="40">
@@ -1955,25 +1955,25 @@
         <v>17.4</v>
       </c>
       <c r="D40">
-        <v>68902.95690939632</v>
+        <v>72735.51263992021</v>
       </c>
       <c r="E40">
-        <v>31.81925079054201</v>
+        <v>30.91187857551742</v>
       </c>
       <c r="F40">
-        <v>21.75574920945798</v>
+        <v>22.66312142448257</v>
       </c>
       <c r="G40">
-        <v>0.1282235129756721</v>
+        <v>0.1289706323018142</v>
       </c>
       <c r="H40">
-        <v>20.40672936645071</v>
+        <v>19.92303583765428</v>
       </c>
       <c r="I40">
-        <v>0.06357524693058218</v>
+        <v>0.07269136815995848</v>
       </c>
       <c r="J40">
-        <v>1.138736903597837</v>
+        <v>1.213592917682461</v>
       </c>
     </row>
     <row r="41">
@@ -1989,25 +1989,25 @@
         <v>3.48154841728571</v>
       </c>
       <c r="D41">
-        <v>66293.13901731027</v>
+        <v>66575.00999913008</v>
       </c>
       <c r="E41">
-        <v>67.52401638279984</v>
+        <v>66.48017216225021</v>
       </c>
       <c r="F41">
-        <v>5.200983617200151</v>
+        <v>6.244827837749781</v>
       </c>
       <c r="G41">
-        <v>0.02713460250063245</v>
+        <v>0.02778098687386347</v>
       </c>
       <c r="H41">
-        <v>20.63493390947253</v>
+        <v>20.17223977781735</v>
       </c>
       <c r="I41">
-        <v>0.0006174069604580264</v>
+        <v>0.0009542859890956761</v>
       </c>
       <c r="J41">
-        <v>0.2576979919739464</v>
+        <v>0.3165250758423178</v>
       </c>
     </row>
     <row r="42">
@@ -2023,25 +2023,25 @@
         <v>8.6</v>
       </c>
       <c r="D42">
-        <v>76373.52035237588</v>
+        <v>84265.95166284384</v>
       </c>
       <c r="E42">
-        <v>55.94477995433843</v>
+        <v>57.93633309409526</v>
       </c>
       <c r="F42">
-        <v>-47.61977995433843</v>
+        <v>-49.61133309409526</v>
       </c>
       <c r="G42">
-        <v>0.02545557708899528</v>
+        <v>0.02823308098327822</v>
       </c>
       <c r="H42">
-        <v>19.59589783636625</v>
+        <v>19.01572482499935</v>
       </c>
       <c r="I42">
-        <v>0.04838792894249586</v>
+        <v>0.06126522108884736</v>
       </c>
       <c r="J42">
-        <v>-2.35742829117082</v>
+        <v>-2.515182764435546</v>
       </c>
     </row>
     <row r="43">
@@ -2057,25 +2057,25 @@
         <v>2.1872038161499</v>
       </c>
       <c r="D43">
-        <v>82710.5455725338</v>
+        <v>85304.70324633591</v>
       </c>
       <c r="E43">
-        <v>73.67756696304551</v>
+        <v>75.46426600166539</v>
       </c>
       <c r="F43">
-        <v>11.32243303695449</v>
+        <v>9.535733998334607</v>
       </c>
       <c r="G43">
-        <v>0.05465095731245762</v>
+        <v>0.04718323747530116</v>
       </c>
       <c r="H43">
-        <v>20.58738511733674</v>
+        <v>20.14729322639755</v>
       </c>
       <c r="I43">
-        <v>0.006241306600549376</v>
+        <v>0.00393455275752222</v>
       </c>
       <c r="J43">
-        <v>0.5691091833631601</v>
+        <v>0.4882240173710969</v>
       </c>
     </row>
     <row r="44">
@@ -2091,25 +2091,25 @@
         <v>3.3</v>
       </c>
       <c r="D44">
-        <v>60289.91181271699</v>
+        <v>67228.20254953126</v>
       </c>
       <c r="E44">
-        <v>66.97462947191663</v>
+        <v>67.1598339824582</v>
       </c>
       <c r="F44">
-        <v>29.90037052808337</v>
+        <v>29.7151660175418</v>
       </c>
       <c r="G44">
-        <v>0.03749775270932618</v>
+        <v>0.02833795040345462</v>
       </c>
       <c r="H44">
-        <v>20.23407101851772</v>
+        <v>19.77690498692366</v>
       </c>
       <c r="I44">
-        <v>0.02880961642999073</v>
+        <v>0.02206543202080083</v>
       </c>
       <c r="J44">
-        <v>1.489455804322258</v>
+        <v>1.506573233453868</v>
       </c>
     </row>
     <row r="45">
@@ -2125,25 +2125,25 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>85938.08238927831</v>
+        <v>87344.46243620376</v>
       </c>
       <c r="E45">
-        <v>64.32395618406392</v>
+        <v>65.82431243201792</v>
       </c>
       <c r="F45">
-        <v>-32.17395618406392</v>
+        <v>-33.67431243201792</v>
       </c>
       <c r="G45">
-        <v>0.04730090774572765</v>
+        <v>0.03114715929538318</v>
       </c>
       <c r="H45">
-        <v>20.16309562807752</v>
+        <v>19.65625368980893</v>
       </c>
       <c r="I45">
-        <v>0.04294864869662787</v>
+        <v>0.0313269737083537</v>
       </c>
       <c r="J45">
-        <v>-1.6109368551371</v>
+        <v>-1.709777253987093</v>
       </c>
     </row>
     <row r="46">
@@ -2159,25 +2159,25 @@
         <v>4.35066347618012</v>
       </c>
       <c r="D46">
-        <v>49062.41302583242</v>
+        <v>52583.94374522704</v>
       </c>
       <c r="E46">
-        <v>62.3365474975148</v>
+        <v>60.0316074745376</v>
       </c>
       <c r="F46">
-        <v>16.23845250248519</v>
+        <v>18.54339252546239</v>
       </c>
       <c r="G46">
-        <v>0.07298427337243273</v>
+        <v>0.04833280773426055</v>
       </c>
       <c r="H46">
-        <v>20.52155608280858</v>
+        <v>20.02695925496752</v>
       </c>
       <c r="I46">
-        <v>0.01782899909413173</v>
+        <v>0.01527806561828946</v>
       </c>
       <c r="J46">
-        <v>0.8242387259055548</v>
+        <v>0.9499841280119554</v>
       </c>
     </row>
     <row r="47">
@@ -2193,25 +2193,25 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>62675.98235502487</v>
+        <v>64792.85015300827</v>
       </c>
       <c r="E47">
-        <v>73.35389208504893</v>
+        <v>72.6206273876783</v>
       </c>
       <c r="F47">
-        <v>-9.453892085048928</v>
+        <v>-8.720627387678299</v>
       </c>
       <c r="G47">
-        <v>0.05134596429396854</v>
+        <v>0.0484870631523882</v>
       </c>
       <c r="H47">
-        <v>20.60565610699884</v>
+        <v>20.15428975285149</v>
       </c>
       <c r="I47">
-        <v>0.004059705012902659</v>
+        <v>0.003390861915981756</v>
       </c>
       <c r="J47">
-        <v>-0.4743606313298465</v>
+        <v>-0.4467968354411697</v>
       </c>
     </row>
     <row r="48">
@@ -2227,25 +2227,25 @@
         <v>1.2666244458518</v>
       </c>
       <c r="D48">
-        <v>48149.73429863487</v>
+        <v>48952.37199753825</v>
       </c>
       <c r="E48">
-        <v>70.19111294789255</v>
+        <v>67.24626814901198</v>
       </c>
       <c r="F48">
-        <v>7.833887052107457</v>
+        <v>10.77873185098802</v>
       </c>
       <c r="G48">
-        <v>0.09785694633673234</v>
+        <v>0.07722906605881405</v>
       </c>
       <c r="H48">
-        <v>20.61720613792115</v>
+        <v>20.13353911527863</v>
       </c>
       <c r="I48">
-        <v>0.005874596621438084</v>
+        <v>0.008772966367730537</v>
       </c>
       <c r="J48">
-        <v>0.4030802581562114</v>
+        <v>0.5607772948838994</v>
       </c>
     </row>
     <row r="49">
@@ -2261,25 +2261,25 @@
         <v>3.35807254306335</v>
       </c>
       <c r="D49">
-        <v>67677.01275829405</v>
+        <v>72399.08355514462</v>
       </c>
       <c r="E49">
-        <v>68.08004355192185</v>
+        <v>68.52450324475481</v>
       </c>
       <c r="F49">
-        <v>-4.180043551921848</v>
+        <v>-4.624503244754813</v>
       </c>
       <c r="G49">
-        <v>0.02691390217322945</v>
+        <v>0.02637399422310215</v>
       </c>
       <c r="H49">
-        <v>20.6392723747583</v>
+        <v>20.1804162759813</v>
       </c>
       <c r="I49">
-        <v>0.0003953833224445688</v>
+        <v>0.0004953816454245959</v>
       </c>
       <c r="J49">
-        <v>-0.2070890328429242</v>
+        <v>-0.2342279473028896</v>
       </c>
     </row>
     <row r="50">
@@ -2295,25 +2295,25 @@
         <v>1.7</v>
       </c>
       <c r="D50">
-        <v>59470.68275576647</v>
+        <v>63848.64404707726</v>
       </c>
       <c r="E50">
-        <v>70.99078495134361</v>
+        <v>70.46301126516339</v>
       </c>
       <c r="F50">
-        <v>-10.99078495134361</v>
+        <v>-10.46301126516339</v>
       </c>
       <c r="G50">
-        <v>0.05120597259380713</v>
+        <v>0.04284149790649235</v>
       </c>
       <c r="H50">
-        <v>20.59104630166322</v>
+        <v>20.1387445757818</v>
       </c>
       <c r="I50">
-        <v>0.005470370676557671</v>
+        <v>0.004262147435689287</v>
       </c>
       <c r="J50">
-        <v>-0.5514354301989425</v>
+        <v>-0.534483704527101</v>
       </c>
     </row>
     <row r="51">
@@ -2329,25 +2329,25 @@
         <v>6.8</v>
       </c>
       <c r="D51">
-        <v>59025.01247640845</v>
+        <v>63272.19972102089</v>
       </c>
       <c r="E51">
-        <v>57.66942722908783</v>
+        <v>56.59672953734204</v>
       </c>
       <c r="F51">
-        <v>32.33057277091217</v>
+        <v>33.40327046265796</v>
       </c>
       <c r="G51">
-        <v>0.03156999928026315</v>
+        <v>0.02389391679756299</v>
       </c>
       <c r="H51">
-        <v>20.16634971171299</v>
+        <v>19.66888636421532</v>
       </c>
       <c r="I51">
-        <v>0.02801221810458513</v>
+        <v>0.02329643392250556</v>
       </c>
       <c r="J51">
-        <v>1.605577259286652</v>
+        <v>1.689702267840901</v>
       </c>
     </row>
     <row r="52">
@@ -2363,25 +2363,25 @@
         <v>4.47480291125413</v>
       </c>
       <c r="D52">
-        <v>48130.78997964483</v>
+        <v>53375.39884079986</v>
       </c>
       <c r="E52">
-        <v>61.85570596452689</v>
+        <v>59.93096148312064</v>
       </c>
       <c r="F52">
-        <v>-1.130705964526896</v>
+        <v>0.794038516879354</v>
       </c>
       <c r="G52">
-        <v>0.07725966428807726</v>
+        <v>0.04585084877094914</v>
       </c>
       <c r="H52">
-        <v>20.64656983053692</v>
+        <v>20.19001130527273</v>
       </c>
       <c r="I52">
-        <v>9.235826625511444E-05</v>
+        <v>2.643724163834838E-05</v>
       </c>
       <c r="J52">
-        <v>-0.05752569277864085</v>
+        <v>0.0406259137351672</v>
       </c>
     </row>
     <row r="53">
@@ -2397,25 +2397,25 @@
         <v>8.1</v>
       </c>
       <c r="D53">
-        <v>70357.61393133373</v>
+        <v>75138.65069401741</v>
       </c>
       <c r="E53">
-        <v>56.22030978111641</v>
+        <v>56.59503429034736</v>
       </c>
       <c r="F53">
-        <v>6.279690218883594</v>
+        <v>5.904965709652636</v>
       </c>
       <c r="G53">
-        <v>0.01926811908593139</v>
+        <v>0.01939268838919058</v>
       </c>
       <c r="H53">
-        <v>20.62946824042679</v>
+        <v>20.17429201829276</v>
       </c>
       <c r="I53">
-        <v>0.000628923431426875</v>
+        <v>0.0005854646576029606</v>
       </c>
       <c r="J53">
-        <v>0.3098953079439396</v>
+        <v>0.2980159600689822</v>
       </c>
     </row>
     <row r="54">
@@ -2431,25 +2431,25 @@
         <v>13.4</v>
       </c>
       <c r="D54">
-        <v>76262.46776824625</v>
+        <v>83398.96257640811</v>
       </c>
       <c r="E54">
-        <v>43.45947781706717</v>
+        <v>44.79030113370871</v>
       </c>
       <c r="F54">
-        <v>-12.20947781706717</v>
+        <v>-13.54030113370871</v>
       </c>
       <c r="G54">
-        <v>0.06500766722365686</v>
+        <v>0.06534907166139348</v>
       </c>
       <c r="H54">
-        <v>20.57686085914694</v>
+        <v>20.10179226304535</v>
       </c>
       <c r="I54">
-        <v>0.008825214351493265</v>
+        <v>0.01141866531538072</v>
       </c>
       <c r="J54">
-        <v>-0.6170850038596246</v>
+        <v>-0.6999601392775704</v>
       </c>
     </row>
     <row r="55">
@@ -2465,25 +2465,25 @@
         <v>7.24485510289794</v>
       </c>
       <c r="D55">
-        <v>59584.58298768425</v>
+        <v>64395.56232166787</v>
       </c>
       <c r="E55">
-        <v>56.60922248493321</v>
+        <v>55.73236273897808</v>
       </c>
       <c r="F55">
-        <v>-19.10922248493321</v>
+        <v>-18.23236273897808</v>
       </c>
       <c r="G55">
-        <v>0.0306353770241623</v>
+        <v>0.02304342162527235</v>
       </c>
       <c r="H55">
-        <v>20.48064684832958</v>
+        <v>20.03651739017311</v>
       </c>
       <c r="I55">
-        <v>0.009478018031455069</v>
+        <v>0.006681908234445846</v>
       </c>
       <c r="J55">
-        <v>-0.9485306326976375</v>
+        <v>-0.9218813487751107</v>
       </c>
     </row>
     <row r="56">
@@ -2499,25 +2499,25 @@
         <v>2.30234334863996</v>
       </c>
       <c r="D56">
-        <v>81453.86217532303</v>
+        <v>81314.38638392692</v>
       </c>
       <c r="E56">
-        <v>73.16482047452871</v>
+        <v>73.98158687965741</v>
       </c>
       <c r="F56">
-        <v>-1.739820474528699</v>
+        <v>-2.556586879657402</v>
       </c>
       <c r="G56">
-        <v>0.05000997294210449</v>
+        <v>0.03990602574516924</v>
       </c>
       <c r="H56">
-        <v>20.64577691200055</v>
+        <v>20.18724331398696</v>
       </c>
       <c r="I56">
-        <v>0.0001335395786682322</v>
+        <v>0.0002355864243318974</v>
       </c>
       <c r="J56">
-        <v>-0.08723622048097089</v>
+        <v>-0.130398738644508</v>
       </c>
     </row>
     <row r="57">
@@ -2533,25 +2533,25 @@
         <v>1.56780768225764</v>
       </c>
       <c r="D57">
-        <v>77717.30714763147</v>
+        <v>82728.02185617677</v>
       </c>
       <c r="E57">
-        <v>74.43710211847664</v>
+        <v>76.3700012024505</v>
       </c>
       <c r="F57">
-        <v>25.56289788152336</v>
+        <v>23.6299987975495</v>
       </c>
       <c r="G57">
-        <v>0.04769566318363487</v>
+        <v>0.04859169027303169</v>
       </c>
       <c r="H57">
-        <v>20.34280843342285</v>
+        <v>19.92430052912047</v>
       </c>
       <c r="I57">
-        <v>0.02736088478471871</v>
+        <v>0.02495592566935757</v>
       </c>
       <c r="J57">
-        <v>1.280189117798137</v>
+        <v>1.210737338513987</v>
       </c>
     </row>
     <row r="58">
@@ -2567,25 +2567,25 @@
         <v>11.1</v>
       </c>
       <c r="D58">
-        <v>76663.77563137216</v>
+        <v>83472.20481221871</v>
       </c>
       <c r="E58">
-        <v>49.5012149215881</v>
+        <v>50.9888116245254</v>
       </c>
       <c r="F58">
-        <v>7.648785078411898</v>
+        <v>6.161188375474602</v>
       </c>
       <c r="G58">
-        <v>0.04116039352804341</v>
+        <v>0.04165400094900491</v>
       </c>
       <c r="H58">
-        <v>20.62029747234316</v>
+        <v>20.17246604074089</v>
       </c>
       <c r="I58">
-        <v>0.002085235470288223</v>
+        <v>0.001433372894919576</v>
       </c>
       <c r="J58">
-        <v>0.3817432816307242</v>
+        <v>0.3145379318999212</v>
       </c>
     </row>
     <row r="59">
@@ -2601,25 +2601,25 @@
         <v>9.757028772629409</v>
       </c>
       <c r="D59">
-        <v>77530.64720625019</v>
+        <v>83954.31936272376</v>
       </c>
       <c r="E59">
-        <v>53.13655847255524</v>
+        <v>54.73732695090199</v>
       </c>
       <c r="F59">
-        <v>31.86344152744476</v>
+        <v>30.26267304909801</v>
       </c>
       <c r="G59">
-        <v>0.03289521431567886</v>
+        <v>0.03301406687259394</v>
       </c>
       <c r="H59">
-        <v>20.17965642527825</v>
+        <v>19.75926687202266</v>
       </c>
       <c r="I59">
-        <v>0.028428478587135</v>
+        <v>0.02692101587630566</v>
       </c>
       <c r="J59">
-        <v>1.583462717815451</v>
+        <v>1.538037464110092</v>
       </c>
     </row>
     <row r="60">
@@ -2635,25 +2635,25 @@
         <v>6.2763106523497</v>
       </c>
       <c r="D60">
-        <v>89085.11584395672</v>
+        <v>95533.06450811823</v>
       </c>
       <c r="E60">
-        <v>64.1415097895884</v>
+        <v>67.49031159694745</v>
       </c>
       <c r="F60">
-        <v>-44.1415097895884</v>
+        <v>-47.49031159694745</v>
       </c>
       <c r="G60">
-        <v>0.06008015833093723</v>
+        <v>0.05117766004739675</v>
       </c>
       <c r="H60">
-        <v>19.71331427649611</v>
+        <v>19.09007049971068</v>
       </c>
       <c r="I60">
-        <v>0.1054936696162029</v>
+        <v>0.106742856056926</v>
       </c>
       <c r="J60">
-        <v>-2.22512135475116</v>
+        <v>-2.436588976012439</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.1630537440692633</v>
+        <v>0.2855067973924169</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.891413019596811</v>
+        <v>1.944662403220182</v>
       </c>
       <c r="C3">
-        <v>0.6919999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7855321212194315</v>
+        <v>0.9753744014900972</v>
       </c>
       <c r="C4">
-        <v>0.6751866818725729</v>
+        <v>0.6140449157980042</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
